--- a/test/ArrowFlow.xlsx
+++ b/test/ArrowFlow.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8C675-9DB9-4961-8BAA-F483E53C9A29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05761025-CAA2-4697-94D3-D7FD85AD8DFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CCAB87-4991-4DE0-A30C-07F675FE31B8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -2429,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C43EE4-E0E8-47F8-8775-8F8A5964D466}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -2442,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
